--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -755,16 +755,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574485</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468706</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739717</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201591</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.03161121466999</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512942</v>
+        <v>0.2917056037513021</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644388</v>
+        <v>0.8906876332644436</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062572</v>
+        <v>7.091324389062995</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550798</v>
+        <v>-119.1713773550771</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726612</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937067</v>
+        <v>3.709154423937003</v>
       </c>
       <c r="D4">
-        <v>3.709154423937067</v>
+        <v>3.709154423937003</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251914</v>
+        <v>42.8296261025184</v>
       </c>
       <c r="G4">
-        <v>42.82962610251914</v>
+        <v>42.8296261025184</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032059</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047565</v>
+        <v>0.9526279648047601</v>
       </c>
       <c r="Q4">
-        <v>-1.247593460057741E-11</v>
+        <v>-1.187913745596536E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999817</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942858</v>
+        <v>0.9526279647942821</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136803</v>
+        <v>0.9526279648136838</v>
       </c>
       <c r="Q5">
-        <v>4.605540323214795E-10</v>
+        <v>4.611613378162887E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942858</v>
+        <v>0.9526279647942821</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136803</v>
+        <v>0.9526279648136838</v>
       </c>
       <c r="Q6">
-        <v>4.605495779853023E-10</v>
+        <v>4.611644358923939E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1128,10 @@
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101547</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160741</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210916</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710716</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.934807098486954</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267037</v>
+        <v>19.43181595267045</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665018</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675492</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744262</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744262</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209831</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551812</v>
+        <v>0.6233452632551825</v>
       </c>
       <c r="P4">
-        <v>0.922941106001154</v>
+        <v>0.9229411060011561</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943076</v>
+        <v>16.25665454943086</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376839</v>
       </c>
       <c r="S4">
-        <v>160.9543898286497</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205485</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568744</v>
+        <v>0.6233452632568757</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067928</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962342</v>
+        <v>16.25665454962353</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366562</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568744</v>
+        <v>0.6233452632568758</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067928</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962342</v>
+        <v>16.25665454962354</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366562</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1495,10 +1495,10 @@
         <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.98323699101547</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.78162348160741</v>
       </c>
       <c r="S2">
         <v>151.2113112851477</v>
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210916</v>
       </c>
       <c r="O3">
-        <v>0.7617779018710716</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869526</v>
+        <v>0.934807098486954</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267037</v>
+        <v>19.43181595267045</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665018</v>
       </c>
       <c r="S3">
         <v>156.7400468039737</v>
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675492</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744262</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744262</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209831</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551812</v>
+        <v>0.6233452632551825</v>
       </c>
       <c r="P4">
-        <v>0.922941106001154</v>
+        <v>0.9229411060011561</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943076</v>
+        <v>16.25665454943086</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376839</v>
       </c>
       <c r="S4">
-        <v>160.9543898286497</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205485</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568744</v>
+        <v>0.6233452632568757</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067928</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962342</v>
+        <v>16.25665454962353</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366562</v>
       </c>
       <c r="S5">
         <v>160.9543898286222</v>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568744</v>
+        <v>0.6233452632568758</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067909</v>
+        <v>0.9229411060067928</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962342</v>
+        <v>16.25665454962354</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.9129785366562</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.8500049525414021</v>
+        <v>0.8500049525414008</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457211</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808847</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.6538163133152</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370793</v>
+        <v>0.9900703401370807</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.3617201835030098</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411088</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274456</v>
+        <v>8.150888684274271</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241905</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833647</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515557</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515557</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973871</v>
+        <v>36.01610081973907</v>
       </c>
       <c r="G4">
-        <v>36.01610081973871</v>
+        <v>36.01610081973907</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880071</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883321</v>
       </c>
       <c r="Q4">
-        <v>1.723106797185835E-10</v>
+        <v>1.720153998616241E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998197</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798928</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964447</v>
       </c>
       <c r="Q5">
-        <v>1.08054829197032E-09</v>
+        <v>1.080257311193759E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989115</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798929</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964447</v>
       </c>
       <c r="Q6">
-        <v>1.080545434434759E-09</v>
+        <v>1.08025852654973E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989115</v>
       </c>
     </row>
   </sheetData>
@@ -2220,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.9821968591989457</v>
       </c>
       <c r="O2">
-        <v>0.8500049525414021</v>
+        <v>0.8500049525414008</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457216</v>
+        <v>0.9468598309457211</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808852</v>
+        <v>25.60992326808847</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.6538163133152</v>
       </c>
       <c r="S2">
         <v>153.3606354236809</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370793</v>
+        <v>0.9900703401370807</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030117</v>
+        <v>0.3617201835030098</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411088</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274456</v>
+        <v>8.150888684274271</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241905</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833647</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515557</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515557</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973871</v>
+        <v>36.01610081973907</v>
       </c>
       <c r="G4">
-        <v>36.01610081973871</v>
+        <v>36.01610081973907</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880071</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883321</v>
       </c>
       <c r="Q4">
-        <v>1.723106797185835E-10</v>
+        <v>1.720153998616241E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998197</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798928</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964447</v>
       </c>
       <c r="Q5">
-        <v>1.08054829197032E-09</v>
+        <v>1.080257311193759E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.9999999989115</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798929</v>
+        <v>0.8660254037798943</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964447</v>
       </c>
       <c r="Q6">
-        <v>1.080545434434759E-09</v>
+        <v>1.08025852654973E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.9999999989115</v>
       </c>
     </row>
   </sheetData>
@@ -2590,16 +2590,16 @@
         <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095897</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751169</v>
+        <v>-92.15705182751172</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766489</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566589</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941328</v>
+        <v>0.8449321159941315</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474865</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729078</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.51829843909261</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.51829843909261</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040614</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040614</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119602</v>
+        <v>0.9573399675119609</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775451</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863317</v>
+        <v>0.8529812840863303</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155594</v>
+        <v>15.9328869715559</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495566</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083645</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863932</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931514</v>
+        <v>0.85298128409315</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196764</v>
+        <v>15.9328869719676</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083646</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863932</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.85298128409315</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.9328869719676</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
   </sheetData>
@@ -2957,16 +2957,16 @@
         <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095897</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222122</v>
+        <v>0.9681777323222117</v>
       </c>
       <c r="Q2">
-        <v>27.82469744524451</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751169</v>
+        <v>-92.15705182751172</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766489</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566589</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941328</v>
+        <v>0.8449321159941315</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474867</v>
+        <v>19.61176266474865</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729078</v>
       </c>
       <c r="S3">
         <v>156.1359474819764</v>
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.51829843909261</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.51829843909261</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040614</v>
       </c>
       <c r="G4">
-        <v>17.53180025040607</v>
+        <v>17.53180025040614</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119602</v>
+        <v>0.9573399675119609</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775462</v>
+        <v>0.5367995610775451</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863317</v>
+        <v>0.8529812840863303</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155594</v>
+        <v>15.9328869715559</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495566</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083645</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863932</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931514</v>
+        <v>0.85298128409315</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196764</v>
+        <v>15.9328869719676</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083646</v>
+        <v>0.9573399675083653</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863932</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931514</v>
+        <v>0.85298128409315</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196764</v>
+        <v>15.9328869719676</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481951</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535385</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088095283332962</v>
+        <v>1.100886579468748</v>
       </c>
       <c r="O2">
-        <v>1.100000023842389</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.087991866296934</v>
+        <v>1.100998391497154</v>
       </c>
       <c r="Q2">
-        <v>30.3688296778486</v>
+        <v>29.96664087235657</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6404659168339</v>
+        <v>150.0232688543231</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.036032999287414</v>
+        <v>1.104831675493068</v>
       </c>
       <c r="O3">
-        <v>1.100000023842549</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P3">
-        <v>1.039546021418981</v>
+        <v>1.105114389425824</v>
       </c>
       <c r="Q3">
-        <v>31.84829994131481</v>
+        <v>29.83846091977177</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.8413546072244</v>
+        <v>150.1359951998593</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6287218226864537</v>
+        <v>0.04972001832149855</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.259854271468325</v>
+        <v>0.5741173192406063</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091323</v>
+        <v>0.9041837529765225</v>
       </c>
       <c r="I4">
-        <v>54.55256884783169</v>
+        <v>-772.1877313585071</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744592</v>
+        <v>0.6277319161825057</v>
       </c>
       <c r="K4">
-        <v>2.898438697960257</v>
+        <v>2.898438697956596</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633215</v>
+        <v>0.6277319163752182</v>
       </c>
       <c r="M4">
-        <v>2.898438697959999</v>
+        <v>2.898438697958861</v>
       </c>
       <c r="N4">
-        <v>1.027008523323553</v>
+        <v>1.105457105363106</v>
       </c>
       <c r="O4">
-        <v>1.100000023842549</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P4">
-        <v>1.014883215215973</v>
+        <v>1.107029024556639</v>
       </c>
       <c r="Q4">
-        <v>33.12681157852376</v>
+        <v>29.74242526725487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.9374049578645</v>
+        <v>150.1154943402618</v>
       </c>
       <c r="T4">
-        <v>0.6287218226864536</v>
+        <v>0.04972001832149854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027008523325546</v>
+        <v>1.105457105362948</v>
       </c>
       <c r="O5">
-        <v>1.100000023842549</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.014883215216537</v>
+        <v>1.107029024556575</v>
       </c>
       <c r="Q5">
-        <v>33.12681157854048</v>
+        <v>29.74242526725394</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9374049579738</v>
+        <v>150.1154943402542</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027008523325546</v>
+        <v>1.105457105362948</v>
       </c>
       <c r="O6">
-        <v>1.100000023842549</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.014883215216537</v>
+        <v>1.107029024556575</v>
       </c>
       <c r="Q6">
-        <v>33.12681157854047</v>
+        <v>29.74242526725393</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.9374049579738</v>
+        <v>150.1154943402542</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088095283332962</v>
+        <v>1.100886579468748</v>
       </c>
       <c r="O2">
-        <v>1.100000023842389</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.087991866296934</v>
+        <v>1.100998391497154</v>
       </c>
       <c r="Q2">
-        <v>30.3688296778486</v>
+        <v>29.96664087235657</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6404659168339</v>
+        <v>150.0232688543231</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.036032999287414</v>
+        <v>1.104831675493068</v>
       </c>
       <c r="O3">
-        <v>1.100000023842549</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P3">
-        <v>1.039546021418981</v>
+        <v>1.105114389425824</v>
       </c>
       <c r="Q3">
-        <v>31.84829994131481</v>
+        <v>29.83846091977177</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.8413546072244</v>
+        <v>150.1359951998593</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6287218226864537</v>
+        <v>0.04972001832149855</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.259854271468325</v>
+        <v>0.5741173192406063</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091323</v>
+        <v>0.9041837529765225</v>
       </c>
       <c r="I4">
-        <v>54.55256884783169</v>
+        <v>-772.1877313585071</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744592</v>
+        <v>0.6277319161825057</v>
       </c>
       <c r="K4">
-        <v>2.898438697960257</v>
+        <v>2.898438697956596</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633215</v>
+        <v>0.6277319163752182</v>
       </c>
       <c r="M4">
-        <v>2.898438697959999</v>
+        <v>2.898438697958861</v>
       </c>
       <c r="N4">
-        <v>1.027008523323553</v>
+        <v>1.105457105363106</v>
       </c>
       <c r="O4">
-        <v>1.100000023842549</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P4">
-        <v>1.014883215215973</v>
+        <v>1.107029024556639</v>
       </c>
       <c r="Q4">
-        <v>33.12681157852376</v>
+        <v>29.74242526725487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S4">
-        <v>147.9374049578645</v>
+        <v>150.1154943402618</v>
       </c>
       <c r="T4">
-        <v>0.6287218226864536</v>
+        <v>0.04972001832149854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027008523325546</v>
+        <v>1.105457105362948</v>
       </c>
       <c r="O5">
-        <v>1.100000023842549</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>1.014883215216537</v>
+        <v>1.107029024556575</v>
       </c>
       <c r="Q5">
-        <v>33.12681157854048</v>
+        <v>29.74242526725394</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9374049579738</v>
+        <v>150.1154943402542</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027008523325546</v>
+        <v>1.105457105362948</v>
       </c>
       <c r="O6">
-        <v>1.100000023842549</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>1.014883215216537</v>
+        <v>1.107029024556575</v>
       </c>
       <c r="Q6">
-        <v>33.12681157854047</v>
+        <v>29.74242526725393</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999767</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.9374049579738</v>
+        <v>150.1154943402542</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089949215221662</v>
+        <v>1.10089079818831</v>
       </c>
       <c r="O2">
-        <v>1.100000023842334</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.091748290411006</v>
+        <v>1.101026975383455</v>
       </c>
       <c r="Q2">
-        <v>30.1969411468571</v>
+        <v>29.96504914999968</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6412071815197</v>
+        <v>150.022661725585</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046344614791326</v>
+        <v>1.104862681948493</v>
       </c>
       <c r="O3">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P3">
-        <v>1.059200253315347</v>
+        <v>1.105267449699619</v>
       </c>
       <c r="Q3">
-        <v>30.92266977859707</v>
+        <v>29.83020717921357</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>147.9353567306178</v>
+        <v>150.1332200821273</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4878356558151785</v>
+        <v>0.05069956024435171</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.633040944103819</v>
+        <v>0.5854280950974423</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091323</v>
+        <v>0.9041837529765225</v>
       </c>
       <c r="I4">
-        <v>54.55256884783169</v>
+        <v>-772.1877313585071</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744592</v>
+        <v>0.6277319161825057</v>
       </c>
       <c r="K4">
-        <v>2.898438697960257</v>
+        <v>2.898438697956596</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633215</v>
+        <v>0.6277319163752182</v>
       </c>
       <c r="M4">
-        <v>2.898438697959999</v>
+        <v>2.898438697958861</v>
       </c>
       <c r="N4">
-        <v>1.036031605502452</v>
+        <v>1.105462817882436</v>
       </c>
       <c r="O4">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P4">
-        <v>1.040122732411645</v>
+        <v>1.107211368284718</v>
       </c>
       <c r="Q4">
-        <v>31.81277621807773</v>
+        <v>29.73164419146518</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.8257682689542</v>
+        <v>150.1103058966717</v>
       </c>
       <c r="T4">
-        <v>0.4878356558151784</v>
+        <v>0.05069956024435171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.036031605503924</v>
+        <v>1.105462817882274</v>
       </c>
       <c r="O5">
-        <v>1.100000023842596</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.040122732411813</v>
+        <v>1.107211368284649</v>
       </c>
       <c r="Q5">
-        <v>31.81277621810711</v>
+        <v>29.7316441914644</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.8257682690398</v>
+        <v>150.110305896664</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.036031605503924</v>
+        <v>1.105462817882274</v>
       </c>
       <c r="O6">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P6">
-        <v>1.040122732411813</v>
+        <v>1.107211368284649</v>
       </c>
       <c r="Q6">
-        <v>31.81277621810711</v>
+        <v>29.73164419146438</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.8257682690398</v>
+        <v>150.110305896664</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089949215221662</v>
+        <v>1.10089079818831</v>
       </c>
       <c r="O2">
-        <v>1.100000023842334</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.091748290411006</v>
+        <v>1.101026975383455</v>
       </c>
       <c r="Q2">
-        <v>30.1969411468571</v>
+        <v>29.96504914999968</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.6412071815197</v>
+        <v>150.022661725585</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046344614791326</v>
+        <v>1.104862681948493</v>
       </c>
       <c r="O3">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P3">
-        <v>1.059200253315347</v>
+        <v>1.105267449699619</v>
       </c>
       <c r="Q3">
-        <v>30.92266977859707</v>
+        <v>29.83020717921357</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>147.9353567306178</v>
+        <v>150.1332200821273</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4878356558151785</v>
+        <v>0.05069956024435171</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.633040944103819</v>
+        <v>0.5854280950974423</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091323</v>
+        <v>0.9041837529765225</v>
       </c>
       <c r="I4">
-        <v>54.55256884783169</v>
+        <v>-772.1877313585071</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744592</v>
+        <v>0.6277319161825057</v>
       </c>
       <c r="K4">
-        <v>2.898438697960257</v>
+        <v>2.898438697956596</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633215</v>
+        <v>0.6277319163752182</v>
       </c>
       <c r="M4">
-        <v>2.898438697959999</v>
+        <v>2.898438697958861</v>
       </c>
       <c r="N4">
-        <v>1.036031605502452</v>
+        <v>1.105462817882436</v>
       </c>
       <c r="O4">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P4">
-        <v>1.040122732411645</v>
+        <v>1.107211368284718</v>
       </c>
       <c r="Q4">
-        <v>31.81277621807773</v>
+        <v>29.73164419146518</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>147.8257682689542</v>
+        <v>150.1103058966717</v>
       </c>
       <c r="T4">
-        <v>0.4878356558151784</v>
+        <v>0.05069956024435171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.036031605503924</v>
+        <v>1.105462817882274</v>
       </c>
       <c r="O5">
-        <v>1.100000023842596</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.040122732411813</v>
+        <v>1.107211368284649</v>
       </c>
       <c r="Q5">
-        <v>31.81277621810711</v>
+        <v>29.7316441914644</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.8257682690398</v>
+        <v>150.110305896664</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.036031605503924</v>
+        <v>1.105462817882274</v>
       </c>
       <c r="O6">
-        <v>1.100000023842596</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P6">
-        <v>1.040122732411813</v>
+        <v>1.107211368284649</v>
       </c>
       <c r="Q6">
-        <v>31.81277621810711</v>
+        <v>29.73164419146438</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999974</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.8257682690398</v>
+        <v>150.110305896664</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873276923691701</v>
+        <v>1.000914579101422</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998336</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.988365467027041</v>
+        <v>1.001032750592348</v>
       </c>
       <c r="Q2">
-        <v>30.35652495078065</v>
+        <v>29.96196227385839</v>
       </c>
       <c r="R2">
         <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.5409129232983</v>
+        <v>150.0263066817642</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375084359272107</v>
+        <v>1.00458939109678</v>
       </c>
       <c r="O3">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.9465185708846697</v>
+        <v>1.004877050389447</v>
       </c>
       <c r="Q3">
-        <v>31.61945631026113</v>
+        <v>29.8299889904558</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999768</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.5054825145742</v>
+        <v>150.1414192434001</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5640092665610996</v>
+        <v>0.04521237851563309</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.512618037489886</v>
+        <v>0.5220675781340803</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134575757</v>
+        <v>1.735960496627381</v>
       </c>
       <c r="I4">
-        <v>54.49554923126163</v>
+        <v>-772.1868781970827</v>
       </c>
       <c r="J4">
-        <v>1.11375188028074</v>
+        <v>1.113751880189073</v>
       </c>
       <c r="K4">
-        <v>3.006397543745817</v>
+        <v>3.006397543740919</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880243963</v>
       </c>
       <c r="M4">
-        <v>3.006397543745491</v>
+        <v>3.006397543745548</v>
       </c>
       <c r="N4">
-        <v>0.9330416675723051</v>
+        <v>1.004613602659173</v>
       </c>
       <c r="O4">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.9153011977098516</v>
+        <v>1.007151565068076</v>
       </c>
       <c r="Q4">
-        <v>33.60426597448834</v>
+        <v>29.68047453275702</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999766</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>148.1055649583978</v>
+        <v>150.0671706261165</v>
       </c>
       <c r="T4">
-        <v>0.5640092665610995</v>
+        <v>0.04521237851563309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9330416675751093</v>
+        <v>1.004613602658955</v>
       </c>
       <c r="O5">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9153011977116259</v>
+        <v>1.007151565067899</v>
       </c>
       <c r="Q5">
-        <v>33.60426597444711</v>
+        <v>29.68047453276148</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>148.1055649585401</v>
+        <v>150.0671706261081</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9330416675751094</v>
+        <v>1.004613602658955</v>
       </c>
       <c r="O6">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.915301197711626</v>
+        <v>1.007151565067899</v>
       </c>
       <c r="Q6">
-        <v>33.6042659744471</v>
+        <v>29.68047453276148</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>148.1055649585401</v>
+        <v>150.0671706261081</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873276923691701</v>
+        <v>1.000914579101422</v>
       </c>
       <c r="O2">
-        <v>0.9999999999998336</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="P2">
-        <v>0.988365467027041</v>
+        <v>1.001032750592348</v>
       </c>
       <c r="Q2">
-        <v>30.35652495078065</v>
+        <v>29.96196227385839</v>
       </c>
       <c r="R2">
         <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.5409129232983</v>
+        <v>150.0263066817642</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375084359272107</v>
+        <v>1.00458939109678</v>
       </c>
       <c r="O3">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.9465185708846697</v>
+        <v>1.004877050389447</v>
       </c>
       <c r="Q3">
-        <v>31.61945631026113</v>
+        <v>29.8299889904558</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999768</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>147.5054825145742</v>
+        <v>150.1414192434001</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5640092665610996</v>
+        <v>0.04521237851563309</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.512618037489886</v>
+        <v>0.5220675781340803</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134575757</v>
+        <v>1.735960496627381</v>
       </c>
       <c r="I4">
-        <v>54.49554923126163</v>
+        <v>-772.1868781970827</v>
       </c>
       <c r="J4">
-        <v>1.11375188028074</v>
+        <v>1.113751880189073</v>
       </c>
       <c r="K4">
-        <v>3.006397543745817</v>
+        <v>3.006397543740919</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880243963</v>
       </c>
       <c r="M4">
-        <v>3.006397543745491</v>
+        <v>3.006397543745548</v>
       </c>
       <c r="N4">
-        <v>0.9330416675723051</v>
+        <v>1.004613602659173</v>
       </c>
       <c r="O4">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.9153011977098516</v>
+        <v>1.007151565068076</v>
       </c>
       <c r="Q4">
-        <v>33.60426597448834</v>
+        <v>29.68047453275702</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999766</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>148.1055649583978</v>
+        <v>150.0671706261165</v>
       </c>
       <c r="T4">
-        <v>0.5640092665610995</v>
+        <v>0.04521237851563309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9330416675751093</v>
+        <v>1.004613602658955</v>
       </c>
       <c r="O5">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9153011977116259</v>
+        <v>1.007151565067899</v>
       </c>
       <c r="Q5">
-        <v>33.60426597444711</v>
+        <v>29.68047453276148</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>148.1055649585401</v>
+        <v>150.0671706261081</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9330416675751094</v>
+        <v>1.004613602658955</v>
       </c>
       <c r="O6">
-        <v>1.000000000000492</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.915301197711626</v>
+        <v>1.007151565067899</v>
       </c>
       <c r="Q6">
-        <v>33.6042659744471</v>
+        <v>29.68047453276148</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>148.1055649585401</v>
+        <v>150.0671706261081</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9896165105012475</v>
+        <v>1.000918791558105</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997511</v>
+        <v>0.9999999999999967</v>
       </c>
       <c r="P2">
-        <v>0.9920786451123619</v>
+        <v>1.001062235901</v>
       </c>
       <c r="Q2">
-        <v>30.18416208615614</v>
+        <v>29.9601516352014</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5722542381905</v>
+        <v>150.025608370376</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9490910355680818</v>
+        <v>1.004618052746047</v>
       </c>
       <c r="O3">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9641942549565775</v>
+        <v>1.005022479988595</v>
       </c>
       <c r="Q3">
-        <v>30.7702279227742</v>
+        <v>29.82133673392095</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.7541922833558</v>
+        <v>150.138464255031</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.434586486224324</v>
+        <v>0.04610114164393004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.018172496155741</v>
+        <v>0.5323301307614415</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134575757</v>
+        <v>1.735960496627381</v>
       </c>
       <c r="I4">
-        <v>54.49554923126163</v>
+        <v>-772.1868781970827</v>
       </c>
       <c r="J4">
-        <v>1.11375188028074</v>
+        <v>1.113751880189073</v>
       </c>
       <c r="K4">
-        <v>3.006397543745817</v>
+        <v>3.006397543740919</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880243963</v>
       </c>
       <c r="M4">
-        <v>3.006397543745491</v>
+        <v>3.006397543745548</v>
       </c>
       <c r="N4">
-        <v>0.9413996486567943</v>
+        <v>1.004589571441085</v>
       </c>
       <c r="O4">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9392780664697744</v>
+        <v>1.007314685926715</v>
       </c>
       <c r="Q4">
-        <v>32.22485107094085</v>
+        <v>29.66888569466771</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>147.9810480345872</v>
+        <v>150.06014433325</v>
       </c>
       <c r="T4">
-        <v>0.4345864862243239</v>
+        <v>0.04610114164393004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9413996486590124</v>
+        <v>1.004589571440865</v>
       </c>
       <c r="O5">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.9392780664708528</v>
+        <v>1.007314685926531</v>
       </c>
       <c r="Q5">
-        <v>32.22485107093311</v>
+        <v>29.6688856946725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>147.9810480347057</v>
+        <v>150.0601443332416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413996486590124</v>
+        <v>1.004589571440865</v>
       </c>
       <c r="O6">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.9392780664708528</v>
+        <v>1.007314685926531</v>
       </c>
       <c r="Q6">
-        <v>32.22485107093311</v>
+        <v>29.6688856946725</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.9810480347057</v>
+        <v>150.0601443332416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9896165105012475</v>
+        <v>1.000918791558105</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997511</v>
+        <v>0.9999999999999967</v>
       </c>
       <c r="P2">
-        <v>0.9920786451123619</v>
+        <v>1.001062235901</v>
       </c>
       <c r="Q2">
-        <v>30.18416208615614</v>
+        <v>29.9601516352014</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5722542381905</v>
+        <v>150.025608370376</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9490910355680818</v>
+        <v>1.004618052746047</v>
       </c>
       <c r="O3">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9641942549565775</v>
+        <v>1.005022479988595</v>
       </c>
       <c r="Q3">
-        <v>30.7702279227742</v>
+        <v>29.82133673392095</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999739</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>147.7541922833558</v>
+        <v>150.138464255031</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.434586486224324</v>
+        <v>0.04610114164393004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.018172496155741</v>
+        <v>0.5323301307614415</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134575757</v>
+        <v>1.735960496627381</v>
       </c>
       <c r="I4">
-        <v>54.49554923126163</v>
+        <v>-772.1868781970827</v>
       </c>
       <c r="J4">
-        <v>1.11375188028074</v>
+        <v>1.113751880189073</v>
       </c>
       <c r="K4">
-        <v>3.006397543745817</v>
+        <v>3.006397543740919</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880243963</v>
       </c>
       <c r="M4">
-        <v>3.006397543745491</v>
+        <v>3.006397543745548</v>
       </c>
       <c r="N4">
-        <v>0.9413996486567943</v>
+        <v>1.004589571441085</v>
       </c>
       <c r="O4">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9392780664697744</v>
+        <v>1.007314685926715</v>
       </c>
       <c r="Q4">
-        <v>32.22485107094085</v>
+        <v>29.66888569466771</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>147.9810480345872</v>
+        <v>150.06014433325</v>
       </c>
       <c r="T4">
-        <v>0.4345864862243239</v>
+        <v>0.04610114164393004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9413996486590124</v>
+        <v>1.004589571440865</v>
       </c>
       <c r="O5">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.9392780664708528</v>
+        <v>1.007314685926531</v>
       </c>
       <c r="Q5">
-        <v>32.22485107093311</v>
+        <v>29.6688856946725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>147.9810480347057</v>
+        <v>150.0601443332416</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413996486590124</v>
+        <v>1.004589571440865</v>
       </c>
       <c r="O6">
-        <v>1.000000000000271</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P6">
-        <v>0.9392780664708528</v>
+        <v>1.007314685926531</v>
       </c>
       <c r="Q6">
-        <v>32.22485107093311</v>
+        <v>29.6688856946725</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999736</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>147.9810480347057</v>
+        <v>150.0601443332416</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066771358158497</v>
+        <v>1.07032536149312</v>
       </c>
       <c r="O2">
-        <v>0.9380319009575707</v>
+        <v>0.9380319009574366</v>
       </c>
       <c r="P2">
-        <v>1.050128197345028</v>
+        <v>1.053748837274343</v>
       </c>
       <c r="Q2">
-        <v>26.0804693652859</v>
+        <v>25.98198273114162</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201113</v>
+        <v>-91.13019952201566</v>
       </c>
       <c r="S2">
-        <v>153.4819171369719</v>
+        <v>153.5745994455914</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012099712735295</v>
+        <v>1.03301833343136</v>
       </c>
       <c r="O3">
-        <v>0.2917056037511676</v>
+        <v>0.291705603751262</v>
       </c>
       <c r="P3">
-        <v>0.8714213674485378</v>
+        <v>0.892109327411597</v>
       </c>
       <c r="Q3">
-        <v>7.188434009994579</v>
+        <v>7.077768387129531</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550001</v>
+        <v>-119.1713773550729</v>
       </c>
       <c r="S3">
-        <v>171.5494571156958</v>
+        <v>171.7881971537456</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.690912397743495</v>
+        <v>3.71180936172543</v>
       </c>
       <c r="D4">
-        <v>3.735009540497536</v>
+        <v>3.706538800385843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.61898532785068</v>
+        <v>42.860282683455</v>
       </c>
       <c r="G4">
-        <v>43.12817527264146</v>
+        <v>42.79942348329119</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>0.927710213123997</v>
+        <v>0.9544186532667447</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9277102131260889</v>
+        <v>0.9544186532683464</v>
       </c>
       <c r="Q4">
-        <v>0.2021272668917705</v>
+        <v>-0.02345852428452523</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.7978727330857</v>
+        <v>179.9765414757324</v>
       </c>
       <c r="T4">
-        <v>0.3390501856604005</v>
+        <v>0.02471984363931269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9277102131155121</v>
+        <v>0.954418653257786</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9277102131353957</v>
+        <v>0.9544186532772416</v>
       </c>
       <c r="Q5">
-        <v>0.2021272674014471</v>
+        <v>-0.0234585238140063</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.7978727335514</v>
+        <v>179.9765414752591</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9277102131155121</v>
+        <v>0.954418653257786</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9277102131353959</v>
+        <v>0.9544186532772416</v>
       </c>
       <c r="Q6">
-        <v>0.2021272674014532</v>
+        <v>-0.0234585238139996</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.7978727335514</v>
+        <v>179.9765414752591</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066771358158497</v>
+        <v>1.07032536149312</v>
       </c>
       <c r="O2">
-        <v>0.9380319009575707</v>
+        <v>0.9380319009574366</v>
       </c>
       <c r="P2">
-        <v>1.050128197345028</v>
+        <v>1.053748837274343</v>
       </c>
       <c r="Q2">
-        <v>26.0804693652859</v>
+        <v>25.98198273114162</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201113</v>
+        <v>-91.13019952201566</v>
       </c>
       <c r="S2">
-        <v>153.4819171369719</v>
+        <v>153.5745994455914</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012099712735295</v>
+        <v>1.03301833343136</v>
       </c>
       <c r="O3">
-        <v>0.2917056037511676</v>
+        <v>0.291705603751262</v>
       </c>
       <c r="P3">
-        <v>0.8714213674485378</v>
+        <v>0.892109327411597</v>
       </c>
       <c r="Q3">
-        <v>7.188434009994579</v>
+        <v>7.077768387129531</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550001</v>
+        <v>-119.1713773550729</v>
       </c>
       <c r="S3">
-        <v>171.5494571156958</v>
+        <v>171.7881971537456</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.690912397743495</v>
+        <v>3.71180936172543</v>
       </c>
       <c r="D4">
-        <v>3.735009540497536</v>
+        <v>3.706538800385843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.61898532785068</v>
+        <v>42.860282683455</v>
       </c>
       <c r="G4">
-        <v>43.12817527264146</v>
+        <v>42.79942348329119</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>0.927710213123997</v>
+        <v>0.9544186532667447</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9277102131260889</v>
+        <v>0.9544186532683464</v>
       </c>
       <c r="Q4">
-        <v>0.2021272668917705</v>
+        <v>-0.02345852428452523</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.7978727330857</v>
+        <v>179.9765414757324</v>
       </c>
       <c r="T4">
-        <v>0.3390501856604005</v>
+        <v>0.02471984363931269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9277102131155121</v>
+        <v>0.954418653257786</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9277102131353957</v>
+        <v>0.9544186532772416</v>
       </c>
       <c r="Q5">
-        <v>0.2021272674014471</v>
+        <v>-0.0234585238140063</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.7978727335514</v>
+        <v>179.9765414752591</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9277102131155121</v>
+        <v>0.954418653257786</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9277102131353959</v>
+        <v>0.9544186532772416</v>
       </c>
       <c r="Q6">
-        <v>0.2021272674014532</v>
+        <v>-0.0234585238139996</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.7978727335514</v>
+        <v>179.9765414752591</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097208333289989</v>
+        <v>1.100403139936373</v>
       </c>
       <c r="O2">
-        <v>1.05696644348982</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.075844304993609</v>
+        <v>1.078768744271491</v>
       </c>
       <c r="Q2">
-        <v>28.76811902350236</v>
+        <v>28.69217536121758</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127295</v>
+        <v>-91.3429255612739</v>
       </c>
       <c r="S2">
-        <v>150.569977659342</v>
+        <v>150.6733200524541</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097686184135659</v>
+        <v>1.115404829206998</v>
       </c>
       <c r="O3">
-        <v>0.8910570420389453</v>
+        <v>0.8910570420388059</v>
       </c>
       <c r="P3">
-        <v>0.9713063971811965</v>
+        <v>0.9865867997049756</v>
       </c>
       <c r="Q3">
-        <v>23.48407749942786</v>
+        <v>23.21944159945589</v>
       </c>
       <c r="R3">
-        <v>-99.16867920488461</v>
+        <v>-99.16867920489059</v>
       </c>
       <c r="S3">
-        <v>152.9147622355831</v>
+        <v>153.519009559332</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.081106311141301</v>
+        <v>1.14162374671169</v>
       </c>
       <c r="D4">
-        <v>1.203140549618416</v>
+        <v>1.126908592362402</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.48354039520066</v>
+        <v>13.18233554954526</v>
       </c>
       <c r="G4">
-        <v>13.89267040390294</v>
+        <v>13.0124195830507</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>1.072930679840119</v>
+        <v>1.094601191471606</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370727</v>
+        <v>0.8020156209369427</v>
       </c>
       <c r="P4">
-        <v>0.9503466787071522</v>
+        <v>0.9722881770424506</v>
       </c>
       <c r="Q4">
-        <v>21.65937363933008</v>
+        <v>21.15659939949387</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015486</v>
+        <v>-99.52967390016391</v>
       </c>
       <c r="S4">
-        <v>155.4443486114421</v>
+        <v>155.9728386421398</v>
       </c>
       <c r="T4">
-        <v>0.2946924268254806</v>
+        <v>0.0249611572305911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.07293067983775</v>
+        <v>1.094601191468753</v>
       </c>
       <c r="O5">
-        <v>0.8020156209381619</v>
+        <v>0.802015620938032</v>
       </c>
       <c r="P5">
-        <v>0.9503466787109146</v>
+        <v>0.9722881770460485</v>
       </c>
       <c r="Q5">
-        <v>21.6593736394653</v>
+        <v>21.15659939961393</v>
       </c>
       <c r="R5">
-        <v>-99.52967389964103</v>
+        <v>-99.52967389965008</v>
       </c>
       <c r="S5">
-        <v>155.4443486114936</v>
+        <v>155.9728386421597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07293067983775</v>
+        <v>1.094601191468753</v>
       </c>
       <c r="O6">
-        <v>0.8020156209381619</v>
+        <v>0.802015620938032</v>
       </c>
       <c r="P6">
-        <v>0.9503466787109145</v>
+        <v>0.9722881770460485</v>
       </c>
       <c r="Q6">
-        <v>21.6593736394653</v>
+        <v>21.15659939961394</v>
       </c>
       <c r="R6">
-        <v>-99.52967389964103</v>
+        <v>-99.52967389965008</v>
       </c>
       <c r="S6">
-        <v>155.4443486114936</v>
+        <v>155.9728386421597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097208333289989</v>
+        <v>1.100403139936373</v>
       </c>
       <c r="O2">
-        <v>1.05696644348982</v>
+        <v>1.056966443489688</v>
       </c>
       <c r="P2">
-        <v>1.075844304993609</v>
+        <v>1.078768744271491</v>
       </c>
       <c r="Q2">
-        <v>28.76811902350236</v>
+        <v>28.69217536121758</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127295</v>
+        <v>-91.3429255612739</v>
       </c>
       <c r="S2">
-        <v>150.569977659342</v>
+        <v>150.6733200524541</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097686184135659</v>
+        <v>1.115404829206998</v>
       </c>
       <c r="O3">
-        <v>0.8910570420389453</v>
+        <v>0.8910570420388059</v>
       </c>
       <c r="P3">
-        <v>0.9713063971811965</v>
+        <v>0.9865867997049756</v>
       </c>
       <c r="Q3">
-        <v>23.48407749942786</v>
+        <v>23.21944159945589</v>
       </c>
       <c r="R3">
-        <v>-99.16867920488461</v>
+        <v>-99.16867920489059</v>
       </c>
       <c r="S3">
-        <v>152.9147622355831</v>
+        <v>153.519009559332</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.081106311141301</v>
+        <v>1.14162374671169</v>
       </c>
       <c r="D4">
-        <v>1.203140549618416</v>
+        <v>1.126908592362402</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.48354039520066</v>
+        <v>13.18233554954526</v>
       </c>
       <c r="G4">
-        <v>13.89267040390294</v>
+        <v>13.0124195830507</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>1.072930679840119</v>
+        <v>1.094601191471606</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370727</v>
+        <v>0.8020156209369427</v>
       </c>
       <c r="P4">
-        <v>0.9503466787071522</v>
+        <v>0.9722881770424506</v>
       </c>
       <c r="Q4">
-        <v>21.65937363933008</v>
+        <v>21.15659939949387</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015486</v>
+        <v>-99.52967390016391</v>
       </c>
       <c r="S4">
-        <v>155.4443486114421</v>
+        <v>155.9728386421398</v>
       </c>
       <c r="T4">
-        <v>0.2946924268254806</v>
+        <v>0.0249611572305911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.07293067983775</v>
+        <v>1.094601191468753</v>
       </c>
       <c r="O5">
-        <v>0.8020156209381619</v>
+        <v>0.802015620938032</v>
       </c>
       <c r="P5">
-        <v>0.9503466787109146</v>
+        <v>0.9722881770460485</v>
       </c>
       <c r="Q5">
-        <v>21.6593736394653</v>
+        <v>21.15659939961393</v>
       </c>
       <c r="R5">
-        <v>-99.52967389964103</v>
+        <v>-99.52967389965008</v>
       </c>
       <c r="S5">
-        <v>155.4443486114936</v>
+        <v>155.9728386421597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07293067983775</v>
+        <v>1.094601191468753</v>
       </c>
       <c r="O6">
-        <v>0.8020156209381619</v>
+        <v>0.802015620938032</v>
       </c>
       <c r="P6">
-        <v>0.9503466787109145</v>
+        <v>0.9722881770460485</v>
       </c>
       <c r="Q6">
-        <v>21.6593736394653</v>
+        <v>21.15659939961394</v>
       </c>
       <c r="R6">
-        <v>-99.52967389964103</v>
+        <v>-99.52967389965008</v>
       </c>
       <c r="S6">
-        <v>155.4443486114936</v>
+        <v>155.9728386421597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9786654024332438</v>
+        <v>0.982436422401565</v>
       </c>
       <c r="O2">
-        <v>0.8500049525413698</v>
+        <v>0.8500049525413974</v>
       </c>
       <c r="P2">
-        <v>0.9435522602740124</v>
+        <v>0.9471225258961018</v>
       </c>
       <c r="Q2">
-        <v>25.69483501683276</v>
+        <v>25.60136503386635</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331645</v>
+        <v>-92.65381631331441</v>
       </c>
       <c r="S2">
-        <v>153.2449478656553</v>
+        <v>153.3666587369962</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.971604592309819</v>
+        <v>0.9914043608664571</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032052</v>
+        <v>0.3617201835029434</v>
       </c>
       <c r="P3">
-        <v>0.747307005477111</v>
+        <v>0.766318612750636</v>
       </c>
       <c r="Q3">
-        <v>8.18673275124423</v>
+        <v>8.13582704836965</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241791</v>
+        <v>-129.0915432241847</v>
       </c>
       <c r="S3">
-        <v>169.0159191194167</v>
+        <v>169.439843286017</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.092708307846955</v>
+        <v>3.123038521340611</v>
       </c>
       <c r="D4">
-        <v>3.152651525080967</v>
+        <v>3.115168648876747</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.71151948120863</v>
+        <v>36.06174261971146</v>
       </c>
       <c r="G4">
-        <v>36.40368413333162</v>
+        <v>35.97086916000145</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.8420303184486704</v>
+        <v>0.8677129167923291</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.842030318448857</v>
+        <v>0.8677129167927493</v>
       </c>
       <c r="Q4">
-        <v>0.3273031180172298</v>
+        <v>-0.04165138596308499</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.6726968823424</v>
+        <v>179.958348613686</v>
       </c>
       <c r="T4">
-        <v>0.3054948188034496</v>
+        <v>0.02247411212461962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8420303184413751</v>
+        <v>0.8677129167841501</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8420303184576298</v>
+        <v>0.8677129168008152</v>
       </c>
       <c r="Q5">
-        <v>0.3273031189717101</v>
+        <v>-0.04165138505766785</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6726968832624</v>
+        <v>179.9583486127793</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8420303184413752</v>
+        <v>0.8677129167841499</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8420303184576298</v>
+        <v>0.8677129168008154</v>
       </c>
       <c r="Q6">
-        <v>0.3273031189717069</v>
+        <v>-0.04165138505766777</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.6726968832624</v>
+        <v>179.9583486127793</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9786654024332438</v>
+        <v>0.982436422401565</v>
       </c>
       <c r="O2">
-        <v>0.8500049525413698</v>
+        <v>0.8500049525413974</v>
       </c>
       <c r="P2">
-        <v>0.9435522602740124</v>
+        <v>0.9471225258961018</v>
       </c>
       <c r="Q2">
-        <v>25.69483501683276</v>
+        <v>25.60136503386635</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331645</v>
+        <v>-92.65381631331441</v>
       </c>
       <c r="S2">
-        <v>153.2449478656553</v>
+        <v>153.3666587369962</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.971604592309819</v>
+        <v>0.9914043608664571</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032052</v>
+        <v>0.3617201835029434</v>
       </c>
       <c r="P3">
-        <v>0.747307005477111</v>
+        <v>0.766318612750636</v>
       </c>
       <c r="Q3">
-        <v>8.18673275124423</v>
+        <v>8.13582704836965</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241791</v>
+        <v>-129.0915432241847</v>
       </c>
       <c r="S3">
-        <v>169.0159191194167</v>
+        <v>169.439843286017</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.092708307846955</v>
+        <v>3.123038521340611</v>
       </c>
       <c r="D4">
-        <v>3.152651525080967</v>
+        <v>3.115168648876747</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.71151948120863</v>
+        <v>36.06174261971146</v>
       </c>
       <c r="G4">
-        <v>36.40368413333162</v>
+        <v>35.97086916000145</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.8420303184486704</v>
+        <v>0.8677129167923291</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.842030318448857</v>
+        <v>0.8677129167927493</v>
       </c>
       <c r="Q4">
-        <v>0.3273031180172298</v>
+        <v>-0.04165138596308499</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.6726968823424</v>
+        <v>179.958348613686</v>
       </c>
       <c r="T4">
-        <v>0.3054948188034496</v>
+        <v>0.02247411212461962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8420303184413751</v>
+        <v>0.8677129167841501</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8420303184576298</v>
+        <v>0.8677129168008152</v>
       </c>
       <c r="Q5">
-        <v>0.3273031189717101</v>
+        <v>-0.04165138505766785</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6726968832624</v>
+        <v>179.9583486127793</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8420303184413752</v>
+        <v>0.8677129167841499</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8420303184576298</v>
+        <v>0.8677129168008154</v>
       </c>
       <c r="Q6">
-        <v>0.3273031189717069</v>
+        <v>-0.04165138505766777</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.6726968832624</v>
+        <v>179.9583486127793</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9979190266527157</v>
+        <v>1.001256492283747</v>
       </c>
       <c r="O2">
-        <v>0.9581045791310597</v>
+        <v>0.9581045791311111</v>
       </c>
       <c r="P2">
-        <v>0.9756316656008136</v>
+        <v>0.9784907882421423</v>
       </c>
       <c r="Q2">
-        <v>28.64431995221533</v>
+        <v>28.57067713167763</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897902</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.5706140421799</v>
+        <v>150.6965864542646</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.00111808767425</v>
+        <v>1.017992030130435</v>
       </c>
       <c r="O3">
-        <v>0.8139299031204152</v>
+        <v>0.8139299031202513</v>
       </c>
       <c r="P3">
-        <v>0.8805284346145157</v>
+        <v>0.8942497176511226</v>
       </c>
       <c r="Q3">
-        <v>23.42282545707767</v>
+        <v>23.2055382816217</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736566</v>
+        <v>-99.65273561736525</v>
       </c>
       <c r="S3">
-        <v>152.6564600326871</v>
+        <v>153.3370846030163</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9490931476202168</v>
+        <v>0.9997206223318429</v>
       </c>
       <c r="D4">
-        <v>1.051156758226564</v>
+        <v>0.985718416182118</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.95918368529123</v>
+        <v>11.54377940835419</v>
       </c>
       <c r="G4">
-        <v>12.13771274645203</v>
+        <v>11.38209585855835</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.9578360751585657</v>
+        <v>0.9780499607657597</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934729</v>
+        <v>0.701930307793311</v>
       </c>
       <c r="P4">
-        <v>0.8699692122462661</v>
+        <v>0.89199654673564</v>
       </c>
       <c r="Q4">
-        <v>21.43395682535116</v>
+        <v>20.79299289221031</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041887</v>
+        <v>-97.6343450704162</v>
       </c>
       <c r="S4">
-        <v>156.5869817588516</v>
+        <v>157.0015974364381</v>
       </c>
       <c r="T4">
-        <v>0.2641352125172369</v>
+        <v>0.0226932032448877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9578360751570004</v>
+        <v>0.9780499607634123</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992578</v>
+        <v>0.7019303077990959</v>
       </c>
       <c r="P5">
-        <v>0.8699692122515161</v>
+        <v>0.8919965467403781</v>
       </c>
       <c r="Q5">
-        <v>21.43395682562588</v>
+        <v>20.79299289247628</v>
       </c>
       <c r="R5">
-        <v>-97.63434506973813</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S5">
-        <v>156.5869817587761</v>
+        <v>157.0015974363279</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9578360751570003</v>
+        <v>0.9780499607634126</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992578</v>
+        <v>0.7019303077990959</v>
       </c>
       <c r="P6">
-        <v>0.8699692122515161</v>
+        <v>0.8919965467403781</v>
       </c>
       <c r="Q6">
-        <v>21.43395682562588</v>
+        <v>20.79299289247628</v>
       </c>
       <c r="R6">
-        <v>-97.63434506973813</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S6">
-        <v>156.5869817587761</v>
+        <v>157.0015974363279</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9979190266527157</v>
+        <v>1.001256492283747</v>
       </c>
       <c r="O2">
-        <v>0.9581045791310597</v>
+        <v>0.9581045791311111</v>
       </c>
       <c r="P2">
-        <v>0.9756316656008136</v>
+        <v>0.9784907882421423</v>
       </c>
       <c r="Q2">
-        <v>28.64431995221533</v>
+        <v>28.57067713167763</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897902</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>150.5706140421799</v>
+        <v>150.6965864542646</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.00111808767425</v>
+        <v>1.017992030130435</v>
       </c>
       <c r="O3">
-        <v>0.8139299031204152</v>
+        <v>0.8139299031202513</v>
       </c>
       <c r="P3">
-        <v>0.8805284346145157</v>
+        <v>0.8942497176511226</v>
       </c>
       <c r="Q3">
-        <v>23.42282545707767</v>
+        <v>23.2055382816217</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736566</v>
+        <v>-99.65273561736525</v>
       </c>
       <c r="S3">
-        <v>152.6564600326871</v>
+        <v>153.3370846030163</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9490931476202168</v>
+        <v>0.9997206223318429</v>
       </c>
       <c r="D4">
-        <v>1.051156758226564</v>
+        <v>0.985718416182118</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.95918368529123</v>
+        <v>11.54377940835419</v>
       </c>
       <c r="G4">
-        <v>12.13771274645203</v>
+        <v>11.38209585855835</v>
       </c>
       <c r="H4">
-        <v>8.311109134575789</v>
+        <v>1.735960496626171</v>
       </c>
       <c r="I4">
-        <v>54.49554923126194</v>
+        <v>-772.1868781970821</v>
       </c>
       <c r="J4">
-        <v>1.113751880243442</v>
+        <v>1.113751880285021</v>
       </c>
       <c r="K4">
-        <v>3.006397543763001</v>
+        <v>3.006397543844843</v>
       </c>
       <c r="L4">
-        <v>1.113751880233465</v>
+        <v>1.113751880227755</v>
       </c>
       <c r="M4">
-        <v>3.006397543745011</v>
+        <v>3.006397543754734</v>
       </c>
       <c r="N4">
-        <v>0.9578360751585657</v>
+        <v>0.9780499607657597</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934729</v>
+        <v>0.701930307793311</v>
       </c>
       <c r="P4">
-        <v>0.8699692122462661</v>
+        <v>0.89199654673564</v>
       </c>
       <c r="Q4">
-        <v>21.43395682535116</v>
+        <v>20.79299289221031</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041887</v>
+        <v>-97.6343450704162</v>
       </c>
       <c r="S4">
-        <v>156.5869817588516</v>
+        <v>157.0015974364381</v>
       </c>
       <c r="T4">
-        <v>0.2641352125172369</v>
+        <v>0.0226932032448877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9578360751570004</v>
+        <v>0.9780499607634123</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992578</v>
+        <v>0.7019303077990959</v>
       </c>
       <c r="P5">
-        <v>0.8699692122515161</v>
+        <v>0.8919965467403781</v>
       </c>
       <c r="Q5">
-        <v>21.43395682562588</v>
+        <v>20.79299289247628</v>
       </c>
       <c r="R5">
-        <v>-97.63434506973813</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S5">
-        <v>156.5869817587761</v>
+        <v>157.0015974363279</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9578360751570003</v>
+        <v>0.9780499607634126</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992578</v>
+        <v>0.7019303077990959</v>
       </c>
       <c r="P6">
-        <v>0.8699692122515161</v>
+        <v>0.8919965467403781</v>
       </c>
       <c r="Q6">
-        <v>21.43395682562588</v>
+        <v>20.79299289247628</v>
       </c>
       <c r="R6">
-        <v>-97.63434506973813</v>
+        <v>-97.63434506973546</v>
       </c>
       <c r="S6">
-        <v>156.5869817587761</v>
+        <v>157.0015974363279</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009574485</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468706</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739717</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201591</v>
       </c>
       <c r="S2">
         <v>153.5693903185486</v>
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.03161121466999</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512942</v>
+        <v>0.2917056037513021</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644388</v>
+        <v>0.8906876332644436</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062572</v>
+        <v>7.091324389062995</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550798</v>
+        <v>-119.1713773550771</v>
       </c>
       <c r="S3">
-        <v>171.7794727726615</v>
+        <v>171.7794727726612</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937067</v>
+        <v>3.709154423937003</v>
       </c>
       <c r="D4">
-        <v>3.709154423937067</v>
+        <v>3.709154423937003</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251914</v>
+        <v>42.8296261025184</v>
       </c>
       <c r="G4">
-        <v>42.82962610251914</v>
+        <v>42.8296261025184</v>
       </c>
       <c r="H4">
-        <v>4.329027417091257</v>
+        <v>0.904183752975391</v>
       </c>
       <c r="I4">
-        <v>54.55256884783179</v>
+        <v>-772.1877313585039</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543736</v>
+        <v>0.6277319163972547</v>
       </c>
       <c r="K4">
-        <v>2.898438697943174</v>
+        <v>2.898438698024666</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642049</v>
+        <v>0.6277319163591694</v>
       </c>
       <c r="M4">
-        <v>2.89843869795938</v>
+        <v>2.898438697970279</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032097</v>
+        <v>0.9526279648032059</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047565</v>
+        <v>0.9526279648047601</v>
       </c>
       <c r="Q4">
-        <v>-1.247593460057741E-11</v>
+        <v>-1.187913745596536E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999817</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942858</v>
+        <v>0.9526279647942821</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136803</v>
+        <v>0.9526279648136838</v>
       </c>
       <c r="Q5">
-        <v>4.605540323214795E-10</v>
+        <v>4.611613378162887E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942858</v>
+        <v>0.9526279647942821</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136803</v>
+        <v>0.9526279648136838</v>
       </c>
       <c r="Q6">
-        <v>4.605495779853023E-10</v>
+        <v>4.611644358923939E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995312</v>
+        <v>179.9999999995306</v>
       </c>
     </row>
   </sheetData>
